--- a/Powers.xlsx
+++ b/Powers.xlsx
@@ -19,35 +19,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>WATER</t>
-  </si>
-  <si>
-    <t>EARTH</t>
-  </si>
-  <si>
-    <t>FIRE</t>
-  </si>
-  <si>
-    <t>AIR</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Save a Civilian 5 times in one round= Waterblast</t>
   </si>
   <si>
-    <t>Kill 15 Enemies without moving = Splash</t>
-  </si>
-  <si>
     <t>Survive 1:00 without using a spell =Hydro Cannon</t>
   </si>
   <si>
     <t>Get 200 kills total with either Air or water in one round = Maelstrom (Area Attack)</t>
   </si>
   <si>
-    <t>Protect the Totem for 2:00 = Water Tornado</t>
-  </si>
-  <si>
     <t>Collect 10 Bags of loot in one game =Steam blast</t>
   </si>
   <si>
@@ -58,6 +40,57 @@
   </si>
   <si>
     <t>Kill 40 DarkShade in one Round = Ice Bullets</t>
+  </si>
+  <si>
+    <t>Kill 15 Enemies without moving = WaterBall</t>
+  </si>
+  <si>
+    <t>WATER (Splash)</t>
+  </si>
+  <si>
+    <t>EARTH (Pebble Blast)</t>
+  </si>
+  <si>
+    <t>FIRE (Fire Spark)</t>
+  </si>
+  <si>
+    <t>AIR (Gust)</t>
+  </si>
+  <si>
+    <t>Kill 3 Enemies with one pebble blast = Rock Toss</t>
+  </si>
+  <si>
+    <t>Kill 100 Ogres in one round = Earth Split</t>
+  </si>
+  <si>
+    <t>Kill 20 sand ninjas in one round = Sand Slash</t>
+  </si>
+  <si>
+    <t>Kill 200 enemies by only firing up and down =Earth wall</t>
+  </si>
+  <si>
+    <t>Don’t get hit for 3:00 = Rock Shield (Area Attack)</t>
+  </si>
+  <si>
+    <t>Kill 20 Rock Gollems in one round = Metal Slice</t>
+  </si>
+  <si>
+    <t>Protect all 4 Totems in one round = Volcanic Rain (Area Attack)</t>
+  </si>
+  <si>
+    <t>Protect the Water totem 5 times in one round = Tsunami (Area Attack)</t>
+  </si>
+  <si>
+    <t>Kill 30 Fire or Earth Gollems in one round = (Flaming Quicksand)</t>
+  </si>
+  <si>
+    <t>Using Splash Survive 4:00 = (Muddy Water)</t>
+  </si>
+  <si>
+    <t>Protect the Air or Water Totem for 2:00 = Waternado</t>
+  </si>
+  <si>
+    <t>Get 900 exp without dying = (Magma Blast)</t>
   </si>
 </sst>
 </file>
@@ -312,10 +345,50 @@
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -323,56 +396,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -709,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -726,118 +759,140 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:13">
-      <c r="I4" s="6"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="3:13">
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="8" spans="3:13" ht="51" customHeight="1" thickBot="1">
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="3:13" ht="52" customHeight="1" thickTop="1" thickBot="1">
+      <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" ht="77" customHeight="1" thickTop="1" thickBot="1">
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="3:13" ht="52" customHeight="1" thickTop="1" thickBot="1">
-      <c r="E9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="12" t="s">
+      <c r="I10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="J10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" ht="53" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="18"/>
+    </row>
+    <row r="12" spans="3:13" ht="50" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="18"/>
+    </row>
+    <row r="13" spans="3:13" ht="51" customHeight="1" thickTop="1" thickBot="1">
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" ht="69" customHeight="1" thickTop="1" thickBot="1">
+      <c r="E14" s="5"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" ht="48" customHeight="1" thickTop="1">
+      <c r="H15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="3:13" ht="77" customHeight="1" thickTop="1" thickBot="1">
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="3:13" ht="53" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="3:13" ht="50" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C12" s="1"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="3:13" ht="51" customHeight="1" thickTop="1" thickBot="1">
-      <c r="E13" s="11"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="3:13" ht="50" customHeight="1" thickTop="1" thickBot="1">
-      <c r="E14" s="11"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="3:13" ht="48" customHeight="1" thickTop="1">
-      <c r="H15" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I15" s="8"/>
+      <c r="I15" s="21"/>
     </row>
     <row r="17" spans="8:9">
-      <c r="I17" s="2"/>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="8:9">
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="8:9">
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
